--- a/Module 3 Deliverables/DRAFT - Configuration Items List_v0.1- 2.4.18.xlsx
+++ b/Module 3 Deliverables/DRAFT - Configuration Items List_v0.1- 2.4.18.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS633 - Term Project\Module 3 Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuseppevaccaro/Documents/GitHub/CS633---Term-Project/Module 3 Deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8415" xr2:uid="{85D518B4-3367-448D-B2B4-E1402BB26F2E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{85D518B4-3367-448D-B2B4-E1402BB26F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Configuration Item Name</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Defects Tracking- Peer Review</t>
+  </si>
+  <si>
+    <t>Interaction Diagram</t>
+  </si>
+  <si>
+    <t>State Transitions</t>
   </si>
 </sst>
 </file>
@@ -502,24 +508,24 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -539,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -559,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -579,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -599,7 +605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -619,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -639,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -659,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -679,7 +685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -699,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -719,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -739,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -759,25 +765,45 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
